--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7938,7 +7939,6 @@
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>85.86</t>
@@ -7970,7 +7970,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -7986,6 +7985,4352 @@
       </c>
       <c r="H134" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.9697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>141.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2605</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1477</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0629</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0412</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8653</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5937</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1939</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0871</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0527</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9545</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7566</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7492</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6659</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12336,4 +12337,2528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9850</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9563</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5256</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14861,4 +14862,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.84999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14870,7 +14871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14881,17 +14882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14901,14 +14922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.61</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14917,14 +14960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>113</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.84999999999999</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -14933,14 +14998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>133</v>
-      </c>
-      <c r="D4" t="n">
-        <v>95.09999999999999</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14949,13 +15036,3343 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4512</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0434</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9184</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7289</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4667</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.34999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>43.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18271,7 +18272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18282,17 +18283,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18302,14 +18323,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.34999999999999</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -18318,14 +18361,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.61</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18334,14 +18399,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>113</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.84999999999999</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4677</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18350,14 +18437,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>133</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.09999999999999</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -18366,13 +18475,1839 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6775</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6118</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.34999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.84999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>133</v>
+      </c>
+      <c r="D6" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>63</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>43.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20190,7 +20191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20201,17 +20202,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20221,14 +20242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.72</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -20237,14 +20280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.34999999999999</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -20253,14 +20318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.61</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -20269,14 +20356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>113</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.84999999999999</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6994</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -20285,14 +20394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>133</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95.09999999999999</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20301,13 +20432,1703 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.34999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.84999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>63</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>43.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>27.67</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>27.72</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>64.34999999999999</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>46.61</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>88.84999999999999</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D7" t="n">
-        <v>95.09999999999999</v>
+        <v>88.84999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>63</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>43.98</v>
       </c>
     </row>
@@ -600,6 +617,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013285</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +3882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4321,7 +5800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7721,7 +9200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10245,7 +11724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14591,7 +16070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19687,7 +21166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
+++ b/数据整理/stocks/A股/科创板/688036-传音控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>17.84</v>
+        <v>45.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>27.67</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>27.72</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>64.34999999999999</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>46.61</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>88.84999999999999</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D8" t="n">
-        <v>95.09999999999999</v>
+        <v>88.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2480 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>63</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>43.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0614</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9921</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9726</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1857</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0911</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3084,2678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015358</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根慧享成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015357</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根慧享成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013285</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013284</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014964</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016400</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +7217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3882,7 +9021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5800,7 +10939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9200,7 +14339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11724,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16070,7 +21209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21164,2454 +26303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.3037</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002692</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创新科技混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>100.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.7805</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.2981</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5369</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.4851</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.2008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.0614</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.9921</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.9726</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.7991</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1857</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.1572</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010109</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国价值增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>56.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.0911</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.0624</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002851</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方品质优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.0488</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009683</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8789</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7778</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>090004</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成精选增值混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7441</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.94</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6573</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519017</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成积极成长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6220</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5043</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>050022</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时回报混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>73.06</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.5028</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4728</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009057</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>80.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3923</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2901</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001144</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成互联网思维混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2780</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009058</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2579</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2172</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>66.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2146</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>020018</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰金鹿混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1857</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1784</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1729</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003593</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国泰景气行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1588</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1510</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1384</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>090009</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>大成行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009684</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1018</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006813</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时汇悦回报混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>73.71</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>000587</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>大成灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0819</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002456</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>700003</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>平安策略先锋混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0406</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002457</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>